--- a/biology/Botanique/Excellence_végétale/Excellence_végétale.xlsx
+++ b/biology/Botanique/Excellence_végétale/Excellence_végétale.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Excellence_v%C3%A9g%C3%A9tale</t>
+          <t>Excellence_végétale</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Excellence Végétale est une association française (Loi de 1901)  créée en 2009 et qui rassemble un ensemble d'acteurs de la filière horticole (des producteurs, des distributeurs, des organisations professionnelles et des associations de consommateurs de produits horticoles...) 
-Cette association a pour but de gérer, défendre et promouvoir les signes officiels et interprofessionnels de la qualité, de l’origine et de l’écoresponsabilité, pour la filière de l’horticulture, de la fleuristerie et du paysage[1].
+Cette association a pour but de gérer, défendre et promouvoir les signes officiels et interprofessionnels de la qualité, de l’origine et de l’écoresponsabilité, pour la filière de l’horticulture, de la fleuristerie et du paysage.
 Son siège est à Paris, au 44 rue d’Alésia dans le 14e arrondissement.
 </t>
         </is>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Excellence_v%C3%A9g%C3%A9tale</t>
+          <t>Excellence_végétale</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Organisation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>L'association est gérée par un conseil d'administration dont les administrateurs sont répartis dans 4 collèges (Producteurs, Distributeurs, Présidents de section, entreprises certifiées et Partenaires). Elle est pilotée au quotidien par un Bureau et dispose d’une équipe de 4 salariés.
 Sont partenaires et membres de droit de l'association, entre autres :
@@ -536,7 +550,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Excellence_v%C3%A9g%C3%A9tale</t>
+          <t>Excellence_végétale</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -554,7 +568,9 @@
           <t>Organisme de défense et de gestion des signes officiels</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Excellence Végétale est agréée par l’Institut national de l’origine et de la qualité (INAO) comme Organisme de défense et de gestion (ODG) pour les Signes officiels d’identification de l’origine et de la qualité (SIQO). Elle est chargée d’élaborer les cahiers des charges des produits et de veiller à leur application par les opérateurs. Dans cet objectif, elle participe à la mise en œuvre des contrôles sur différents plans : élaboration des plans de contrôle, organisation des audits internes et choix d’un Organisme certificateur (OC) pour la réalisation des audits externes. Son rôle est également de défendre, de protéger et de valoriser les produits sous cahier des charges homologués.
 Le Label Rouge pour les produits de l’horticulture  
@@ -593,7 +609,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Excellence_v%C3%A9g%C3%A9tale</t>
+          <t>Excellence_végétale</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -611,7 +627,9 @@
           <t>Gestion des signes interprofessionnels</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Depuis 2018, l'Interprofession Horticole Val'hor a confié à Excellence Végétale la gestion de la certification environnementale et sociale française “Plante Bleue” ainsi que de la marque “Fleurs de France”.
 La certification environnementale et sociale “Plante Bleue”
